--- a/ESP-PSYCHIC/ESP_raw_2-year.xlsx
+++ b/ESP-PSYCHIC/ESP_raw_2-year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\L2CPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\ESP-PSYCHIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC97C9-DD21-48B9-931B-52B51A157231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6322D8-2949-4194-9F18-8BAABB845090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="20730" windowHeight="11160" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,12 +445,12 @@
         <v>207950000000</v>
       </c>
       <c r="H2" s="1">
-        <f>B3-B2</f>
-        <v>0.15</v>
+        <f>(B3-B2)*1000</f>
+        <v>150</v>
       </c>
       <c r="I2" s="1">
-        <f>B2</f>
-        <v>0.1</v>
+        <f>B2*1000</f>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -473,12 +473,12 @@
         <v>100250000000</v>
       </c>
       <c r="H3" s="1">
-        <f>B4-B3</f>
-        <v>0.25</v>
+        <f t="shared" ref="H3:H29" si="2">(B4-B3)*1000</f>
+        <v>250</v>
       </c>
       <c r="I3" s="1">
-        <f>B3</f>
-        <v>0.25</v>
+        <f t="shared" ref="I3:I29" si="3">B3*1000</f>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -501,12 +501,12 @@
         <v>68280000000</v>
       </c>
       <c r="H4" s="1">
-        <f>B5-B4</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I4" s="1">
-        <f>B4</f>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
@@ -529,12 +529,12 @@
         <v>46509000000</v>
       </c>
       <c r="H5" s="1">
-        <f>B6-B5</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I5" s="1">
-        <f>B5</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
@@ -557,12 +557,12 @@
         <v>27367000000</v>
       </c>
       <c r="H6" s="1">
-        <f>B7-B6</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1500</v>
       </c>
       <c r="I6" s="1">
-        <f>B6</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -585,12 +585,12 @@
         <v>14554000000</v>
       </c>
       <c r="H7" s="1">
-        <f>B8-B7</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1500</v>
       </c>
       <c r="I7" s="1">
-        <f>B7</f>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -613,12 +613,12 @@
         <v>15051000000</v>
       </c>
       <c r="H8" s="1">
-        <f>B9-B8</f>
-        <v>2.0999999999999996</v>
+        <f t="shared" si="2"/>
+        <v>2099.9999999999995</v>
       </c>
       <c r="I8" s="1">
-        <f>B8</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -641,12 +641,12 @@
         <v>4832000000</v>
       </c>
       <c r="H9" s="1">
-        <f>B10-B9</f>
-        <v>0.90000000000000036</v>
+        <f t="shared" si="2"/>
+        <v>900.00000000000034</v>
       </c>
       <c r="I9" s="1">
-        <f>B9</f>
-        <v>7.1</v>
+        <f t="shared" si="3"/>
+        <v>7100</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
@@ -669,12 +669,12 @@
         <v>4228000000</v>
       </c>
       <c r="H10" s="1">
-        <f>B11-B10</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I10" s="1">
-        <f>B10</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
@@ -697,12 +697,12 @@
         <v>3377000000</v>
       </c>
       <c r="H11" s="1">
-        <f>B12-B11</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I11" s="1">
-        <f>B11</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -725,12 +725,12 @@
         <v>10740000000</v>
       </c>
       <c r="H12" s="1">
-        <f>B13-B12</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I12" s="1">
-        <f>B12</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -753,12 +753,12 @@
         <v>1880000000</v>
       </c>
       <c r="H13" s="1">
-        <f>B14-B13</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I13" s="1">
-        <f>B13</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>16000</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
@@ -781,12 +781,12 @@
         <v>1524000000</v>
       </c>
       <c r="H14" s="1">
-        <f>B15-B14</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I14" s="1">
-        <f>B14</f>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
@@ -809,12 +809,12 @@
         <v>3496000000</v>
       </c>
       <c r="H15" s="1">
-        <f>B16-B15</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="I15" s="1">
-        <f>B15</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
@@ -837,12 +837,12 @@
         <v>3765900000</v>
       </c>
       <c r="H16" s="1">
-        <f>B17-B16</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="I16" s="1">
-        <f>B16</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -865,12 +865,12 @@
         <v>1832000000</v>
       </c>
       <c r="H17" s="1">
-        <f>B18-B17</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="I17" s="1">
-        <f>B17</f>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -893,12 +893,12 @@
         <v>1021700000</v>
       </c>
       <c r="H18" s="1">
-        <f>B19-B18</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="I18" s="1">
-        <f>B18</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -921,12 +921,12 @@
         <v>1151200000</v>
       </c>
       <c r="H19" s="1">
-        <f>B20-B19</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="I19" s="1">
-        <f>B19</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>45000</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -949,12 +949,12 @@
         <v>2346300000</v>
       </c>
       <c r="H20" s="1">
-        <f>B21-B20</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>21000</v>
       </c>
       <c r="I20" s="1">
-        <f>B20</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -977,12 +977,12 @@
         <v>535000000</v>
       </c>
       <c r="H21" s="1">
-        <f>B22-B21</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9000</v>
       </c>
       <c r="I21" s="1">
-        <f>B21</f>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>71000</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
@@ -1005,12 +1005,12 @@
         <v>418200000</v>
       </c>
       <c r="H22" s="1">
-        <f>B23-B22</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="I22" s="1">
-        <f>B22</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
@@ -1033,12 +1033,12 @@
         <v>259470000</v>
       </c>
       <c r="H23" s="1">
-        <f>B24-B23</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="I23" s="1">
-        <f>B23</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>90000</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
@@ -1061,12 +1061,12 @@
         <v>628670000</v>
       </c>
       <c r="H24" s="1">
-        <f>B25-B24</f>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="I24" s="1">
-        <f>B24</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
@@ -1089,12 +1089,12 @@
         <v>79150000</v>
       </c>
       <c r="H25" s="1">
-        <f>B26-B25</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>20000</v>
       </c>
       <c r="I25" s="1">
-        <f>B25</f>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>160000</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
@@ -1117,12 +1117,12 @@
         <v>54440000</v>
       </c>
       <c r="H26" s="1">
-        <f>B27-B26</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>20000</v>
       </c>
       <c r="I26" s="1">
-        <f>B26</f>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>180000</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -1145,12 +1145,12 @@
         <v>79150000</v>
       </c>
       <c r="H27" s="1">
-        <f>B28-B27</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>50000</v>
       </c>
       <c r="I27" s="1">
-        <f>B27</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -1173,12 +1173,12 @@
         <v>73305000</v>
       </c>
       <c r="H28" s="1">
-        <f>B29-B28</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>150000</v>
       </c>
       <c r="I28" s="1">
-        <f>B28</f>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>250000</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -1201,12 +1201,12 @@
         <v>12670000</v>
       </c>
       <c r="H29" s="1">
-        <f>B30-B29</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>100000</v>
       </c>
       <c r="I29" s="1">
-        <f>B29</f>
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>400000</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">

--- a/ESP-PSYCHIC/ESP_raw_2-year.xlsx
+++ b/ESP-PSYCHIC/ESP_raw_2-year.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\ESP-PSYCHIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6322D8-2949-4194-9F18-8BAABB845090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668F6AD-7370-43DE-8C68-C54CB131F917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Energy (MeV)</t>
   </si>
@@ -399,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE19201C-896C-496E-8623-365D2754CDDA}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,4 +1229,805 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECE40F5-E8F7-4B45-ACC2-85504FAB8049}">
+  <dimension ref="B1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1819500000000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11459000000000</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SQRT(B2*B3)*1000</f>
+        <v>158.11388300841898</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2-C3</f>
+        <v>804400000000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(B3-B2)*1000</f>
+        <v>150</v>
+      </c>
+      <c r="I2" s="1">
+        <f>B2*1000</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1015100000000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2613100000000</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F29" si="0">SQRT(B3*B4)*1000</f>
+        <v>353.55339059327378</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G29" si="1">C3-C4</f>
+        <v>362320000000</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H29" si="2">(B4-B3)*1000</f>
+        <v>250</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I29" si="3">B3*1000</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>652780000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>837550000000</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>232980000000</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>419800000000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>269310000000</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>149830000000</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>269970000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>86596000000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2645.7513110645909</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>85700000000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>184270000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42655000000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>4183.3001326703779</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>45850000000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>138420000000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23893000000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>5958.1876439064927</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>38517000000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>2099.9999999999995</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99903000000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13936000000</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>7536.5774725667088</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>11637000000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>900.00000000000034</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>88266000000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11616000000</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>8485.2813742385697</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>10155000000</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>78111000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9122500000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>9486.832980505138</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>8090000000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>70021000000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7773400000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>12649.110640673518</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>30214000000</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>39807000000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3252600000</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>16970.562748477139</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>5765000000</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34042000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2552500000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>18973.665961010276</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>4445000000</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>29597000000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2060700000</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>22360.679774997898</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>8138000000</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>21459000000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1297600000</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>29580.398915498081</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>8869000000</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12590000000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>605080000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>37416.573867739418</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>2558000000</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10032000000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>445630000</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>42426.406871192856</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1897900000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8134100000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>332880000</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>47434.164902525685</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1430900000</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6703200000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>254230000</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SQRT(B20*B21)*1000</f>
+        <v>59581.87643906493</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>3355300000</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>21000</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3347900000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100360000</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F29" si="4">SQRT(B21*B22)*1000</f>
+        <v>75365.774725667099</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21:G29" si="5">C21-C22</f>
+        <v>749700000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H29" si="6">(B22-B21)*1000</f>
+        <v>9000</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I29" si="7">B21*1000</f>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2598200000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>72013000</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>84852.813742385712</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="5"/>
+        <v>594800000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2003400000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>51140000</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="4"/>
+        <v>94868.329805051369</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="5"/>
+        <v>428000000</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1575400000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>36705000</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="4"/>
+        <v>126491.10640673517</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="5"/>
+        <v>1051110000</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>160</v>
+      </c>
+      <c r="C25" s="1">
+        <v>524290000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8315700</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="4"/>
+        <v>169705.62748477142</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="5"/>
+        <v>132350000</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="7"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>180</v>
+      </c>
+      <c r="C26" s="1">
+        <v>391940000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5584500</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>189736.65961010274</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="5"/>
+        <v>91030000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="7"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>300910000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3914000</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="4"/>
+        <v>223606.79774997896</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="5"/>
+        <v>132340000</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>250</v>
+      </c>
+      <c r="C28" s="1">
+        <v>168570000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1867100</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="4"/>
+        <v>316227.76601683797</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="5"/>
+        <v>122564000</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="6"/>
+        <v>150000</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>400</v>
+      </c>
+      <c r="C29" s="1">
+        <v>46006000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>333370</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>447213.59549995791</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="5"/>
+        <v>21184000</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="7"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>500</v>
+      </c>
+      <c r="C30" s="1">
+        <v>24822000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>123980</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>